--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Steven Neveadomi</t>
   </si>
@@ -32,16 +32,22 @@
     <t>Tori</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Steven Neverdone it</t>
-  </si>
-  <si>
     <t>Got em</t>
   </si>
   <si>
-    <t>Yeah bby</t>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Steven N</t>
+  </si>
+  <si>
+    <t>GOt em</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>yeet</t>
   </si>
 </sst>
 </file>
@@ -403,42 +409,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>700</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,23 +452,23 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,15 +476,15 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Steven Neveadomi</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Got em</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>Steven N</t>
   </si>
   <si>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>yeet</t>
+  </si>
+  <si>
+    <t>Yo Dawg Crilla</t>
+  </si>
+  <si>
+    <t>Shaleen</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>740</v>
@@ -433,55 +436,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>10</v>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Steven Neveadomi</t>
   </si>
@@ -32,25 +32,22 @@
     <t>Tori</t>
   </si>
   <si>
-    <t>Got em</t>
-  </si>
-  <si>
     <t>Steven N</t>
   </si>
   <si>
-    <t>GOt em</t>
-  </si>
-  <si>
-    <t>Wow</t>
-  </si>
-  <si>
-    <t>yeet</t>
-  </si>
-  <si>
     <t>Yo Dawg Crilla</t>
   </si>
   <si>
     <t>Shaleen</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Tori :)</t>
+  </si>
+  <si>
+    <t>TORI IS MATLAB KING</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>740</v>
@@ -436,18 +433,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,23 +452,23 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,15 +476,15 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -44,10 +44,10 @@
     <t>Steven</t>
   </si>
   <si>
-    <t>Tori :)</t>
-  </si>
-  <si>
     <t>TORI IS MATLAB KING</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -433,55 +433,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>80</v>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -47,7 +47,7 @@
     <t>TORI IS MATLAB KING</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Blaze it</t>
   </si>
 </sst>
 </file>
@@ -425,50 +425,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,15 +476,15 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -35,9 +35,6 @@
     <t>Steven N</t>
   </si>
   <si>
-    <t>Yo Dawg Crilla</t>
-  </si>
-  <si>
     <t>Shaleen</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Blaze it</t>
+  </si>
+  <si>
+    <t>Yeet</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>490</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>420</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>260</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>180</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>170</v>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Steven Neveadomi</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Steven N</t>
   </si>
   <si>
-    <t>Shaleen</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
@@ -47,7 +44,13 @@
     <t>Blaze it</t>
   </si>
   <si>
-    <t>Yeet</t>
+    <t>T0R1</t>
+  </si>
+  <si>
+    <t>Tori sucks nuts</t>
+  </si>
+  <si>
+    <t>Zoe</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>490</v>
@@ -433,7 +436,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>420</v>
@@ -449,7 +452,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -457,34 +460,34 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axx\Documents\GitHub\Software_Development_Project_FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\Software_Development_Project_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{D657AB52-D306-479E-BE40-3C67F9AC7923}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,16 @@
     <t>T0R1</t>
   </si>
   <si>
-    <t>Tori sucks nuts</t>
-  </si>
-  <si>
     <t>Zoe</t>
+  </si>
+  <si>
+    <t>Sarah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,14 +401,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B965C66B-A5DB-4604-AB28-5A6E52746BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -452,7 +455,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>210</v>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\Software_Development_Project_FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axx\Documents\GitHub\Software_Development_Project_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>260</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>230</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/highscores.xlsx
+++ b/highscores.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axx\Documents\GitHub\Software_Development_Project_FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Documents\GitHub\Software_Development_Project_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Steven Neveadomi</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Blaze it</t>
-  </si>
-  <si>
-    <t>T0R1</t>
-  </si>
-  <si>
-    <t>Zoe</t>
   </si>
   <si>
     <t>Sarah</t>
@@ -56,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +449,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -471,7 +465,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>120</v>
@@ -479,18 +473,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
